--- a/biology/Botanique/Psathyrella_gracilis/Psathyrella_gracilis.xlsx
+++ b/biology/Botanique/Psathyrella_gracilis/Psathyrella_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psathyrella gracilis, de son nom vernaculaire la Psathyrelle gracile, est une espèce de champignons basidiomycètes non comestibles du genre Psathyrella, dans la famille des Psathyrellaceae.
-Selon MycoBank[1], le nom valide serait Psathyrella gracilis (Fr..) Quél., 1872, mais selon Index Fungorum[2], le nom valide serait Psathyrella corrugis (Pers.) Konrad &amp; Maubl., 1949.
+Selon MycoBank, le nom valide serait Psathyrella gracilis (Fr..) Quél., 1872, mais selon Index Fungorum, le nom valide serait Psathyrella corrugis (Pers.) Konrad &amp; Maubl., 1949.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Nom binomial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Psathyrella gracilis (Fr.) Quél. 1872
-Synonymes
-Agaricus gracilis Fr. 1821 (synonyme)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psathyrella gracilis (Fr.) Quél. 1872
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Psathyrella_gracilis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psathyrella_gracilis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus gracilis Fr. 1821 (synonyme)
 Agaricus gracilis var. gracilis Fr. 1821 (synonyme)
 Coprinarius gracilis (Fr.) P. Kumm. 1871 (synonyme)
 Drosophila gracilis (Fr.) Quél. 1888 (synonyme)
@@ -527,37 +576,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Psathyrella_gracilis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Psathyrella_gracilis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Effet antitumoral</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publié en 1973, il semble qu'il puisse avoir un effet antitumoral[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -579,12 +597,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Effet antitumoral</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publié en 1973, il semble qu'il puisse avoir un effet antitumoral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Psathyrella_gracilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psathyrella_gracilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 octobre 2013)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 octobre 2013) :
 forme Psathyrella gracilis' f. corrugis</t>
         </is>
       </c>
